--- a/wide/synthetic_dataset_11.xlsx
+++ b/wide/synthetic_dataset_11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
   <si>
     <t>not a date</t>
   </si>
@@ -380,227 +380,425 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:27">
       <c r="A1" s="1">
-        <v>45947</v>
+        <v>45872</v>
       </c>
       <c r="B1" s="1">
-        <v>45954</v>
+        <v>45879</v>
       </c>
       <c r="C1" s="1">
-        <v>45961</v>
-      </c>
-      <c r="D1" s="1">
-        <v>45968</v>
+        <v>45886</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="E1" s="1">
-        <v>45975</v>
+        <v>45900</v>
       </c>
       <c r="F1" s="1">
-        <v>45982</v>
+        <v>45907</v>
       </c>
       <c r="G1" s="1">
-        <v>45989</v>
-      </c>
-      <c r="H1" s="2" t="s">
+        <v>45914</v>
+      </c>
+      <c r="H1" s="1">
+        <v>45921</v>
+      </c>
+      <c r="I1" s="1">
+        <v>45928</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="1">
-        <v>46003</v>
-      </c>
-      <c r="J1" s="1">
-        <v>46010</v>
-      </c>
       <c r="K1" s="1">
-        <v>46017</v>
+        <v>45942</v>
       </c>
       <c r="L1" s="1">
-        <v>46024</v>
+        <v>45949</v>
       </c>
       <c r="M1" s="1">
-        <v>46031</v>
+        <v>45956</v>
       </c>
       <c r="N1" s="1">
-        <v>46038</v>
+        <v>45963</v>
       </c>
       <c r="O1" s="1">
-        <v>46045</v>
+        <v>45970</v>
+      </c>
+      <c r="P1" s="1">
+        <v>45977</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>45984</v>
+      </c>
+      <c r="R1" s="1">
+        <v>45991</v>
+      </c>
+      <c r="S1" s="1">
+        <v>45998</v>
+      </c>
+      <c r="T1" s="1">
+        <v>46005</v>
+      </c>
+      <c r="U1" s="1">
+        <v>46012</v>
+      </c>
+      <c r="V1" s="1">
+        <v>46019</v>
+      </c>
+      <c r="W1" s="1">
+        <v>46026</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>46040</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>46047</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>46054</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:27">
       <c r="A2">
+        <v>176</v>
+      </c>
+      <c r="B2">
+        <v>130</v>
+      </c>
+      <c r="C2">
+        <v>183</v>
+      </c>
+      <c r="D2">
+        <v>82</v>
+      </c>
+      <c r="E2">
+        <v>83</v>
+      </c>
+      <c r="F2">
+        <v>183</v>
+      </c>
+      <c r="G2">
+        <v>138</v>
+      </c>
+      <c r="H2">
+        <v>127</v>
+      </c>
+      <c r="I2">
         <v>180</v>
       </c>
-      <c r="B2">
-        <v>60</v>
-      </c>
-      <c r="C2">
-        <v>146</v>
-      </c>
-      <c r="E2">
-        <v>126</v>
-      </c>
-      <c r="F2">
-        <v>116</v>
-      </c>
-      <c r="G2">
-        <v>168</v>
-      </c>
-      <c r="H2">
-        <v>108</v>
-      </c>
-      <c r="I2">
-        <v>136</v>
+      <c r="J2">
+        <v>121</v>
       </c>
       <c r="K2">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="L2">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="M2">
-        <v>70</v>
+        <v>179</v>
       </c>
       <c r="N2">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="O2">
-        <v>163</v>
+        <v>162</v>
+      </c>
+      <c r="P2">
+        <v>167</v>
+      </c>
+      <c r="Q2">
+        <v>95</v>
+      </c>
+      <c r="R2">
+        <v>104</v>
+      </c>
+      <c r="S2">
+        <v>133</v>
+      </c>
+      <c r="T2">
+        <v>192</v>
+      </c>
+      <c r="U2">
+        <v>187</v>
+      </c>
+      <c r="V2">
+        <v>153</v>
+      </c>
+      <c r="W2">
+        <v>160</v>
+      </c>
+      <c r="X2">
+        <v>186</v>
+      </c>
+      <c r="Y2">
+        <v>184</v>
+      </c>
+      <c r="Z2">
+        <v>159</v>
+      </c>
+      <c r="AA2">
+        <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:27">
       <c r="A3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
         <v>2</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
       </c>
       <c r="F3">
         <v>4</v>
       </c>
       <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
         <v>10</v>
       </c>
-      <c r="H3">
-        <v>9</v>
-      </c>
-      <c r="I3">
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>9</v>
+      </c>
+      <c r="M3">
+        <v>8</v>
+      </c>
+      <c r="N3">
+        <v>9</v>
+      </c>
+      <c r="O3">
+        <v>7</v>
+      </c>
+      <c r="P3">
+        <v>10</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>6</v>
+      </c>
+      <c r="S3">
+        <v>8</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>3</v>
+      </c>
+      <c r="V3">
+        <v>9</v>
+      </c>
+      <c r="W3">
+        <v>9</v>
+      </c>
+      <c r="X3">
+        <v>2</v>
+      </c>
+      <c r="Y3">
+        <v>10</v>
+      </c>
+      <c r="Z3">
         <v>5</v>
       </c>
-      <c r="J3">
+      <c r="AA3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4">
+        <v>199</v>
+      </c>
+      <c r="B4">
+        <v>141</v>
+      </c>
+      <c r="C4">
+        <v>52</v>
+      </c>
+      <c r="D4">
+        <v>113</v>
+      </c>
+      <c r="E4">
+        <v>67</v>
+      </c>
+      <c r="F4">
+        <v>126</v>
+      </c>
+      <c r="G4">
+        <v>115</v>
+      </c>
+      <c r="H4">
+        <v>87</v>
+      </c>
+      <c r="I4">
+        <v>167</v>
+      </c>
+      <c r="J4">
+        <v>176</v>
+      </c>
+      <c r="K4">
+        <v>111</v>
+      </c>
+      <c r="L4">
+        <v>166</v>
+      </c>
+      <c r="M4">
+        <v>114</v>
+      </c>
+      <c r="N4">
+        <v>77</v>
+      </c>
+      <c r="O4">
+        <v>191</v>
+      </c>
+      <c r="P4">
+        <v>69</v>
+      </c>
+      <c r="Q4">
+        <v>187</v>
+      </c>
+      <c r="R4">
+        <v>78</v>
+      </c>
+      <c r="S4">
+        <v>184</v>
+      </c>
+      <c r="T4">
+        <v>194</v>
+      </c>
+      <c r="U4">
+        <v>126</v>
+      </c>
+      <c r="V4">
+        <v>174</v>
+      </c>
+      <c r="W4">
+        <v>186</v>
+      </c>
+      <c r="X4">
+        <v>174</v>
+      </c>
+      <c r="Y4">
+        <v>85</v>
+      </c>
+      <c r="Z4">
+        <v>167</v>
+      </c>
+      <c r="AA4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
         <v>2</v>
-      </c>
-      <c r="K3">
-        <v>9</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4">
-        <v>152</v>
-      </c>
-      <c r="B4">
-        <v>52</v>
-      </c>
-      <c r="C4">
-        <v>84</v>
-      </c>
-      <c r="D4">
-        <v>179</v>
-      </c>
-      <c r="E4">
-        <v>170</v>
-      </c>
-      <c r="F4">
-        <v>178</v>
-      </c>
-      <c r="H4">
-        <v>142</v>
-      </c>
-      <c r="I4">
-        <v>133</v>
-      </c>
-      <c r="J4">
-        <v>100</v>
-      </c>
-      <c r="K4">
-        <v>103</v>
-      </c>
-      <c r="L4">
-        <v>171</v>
-      </c>
-      <c r="M4">
-        <v>96</v>
-      </c>
-      <c r="N4">
-        <v>126</v>
-      </c>
-      <c r="O4">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
       <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>9</v>
+      </c>
+      <c r="J5">
         <v>4</v>
       </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>8</v>
-      </c>
       <c r="K5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L5">
         <v>6</v>
       </c>
       <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <v>10</v>
+      </c>
+      <c r="O5">
+        <v>8</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>7</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>10</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+      <c r="V5">
+        <v>7</v>
+      </c>
+      <c r="W5">
+        <v>9</v>
+      </c>
+      <c r="X5">
         <v>6</v>
       </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>2</v>
+      <c r="Y5">
+        <v>6</v>
+      </c>
+      <c r="Z5">
+        <v>8</v>
+      </c>
+      <c r="AA5">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
